--- a/F_dataset/DUD-E/MET/MET_prepare/MET_total.xlsx
+++ b/F_dataset/DUD-E/MET/MET_prepare/MET_total.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T366"/>
+  <dimension ref="A1:T314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18689,4374 +18689,6 @@
       <c r="S314" t="inlineStr"/>
       <c r="T314" t="inlineStr"/>
     </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>CHEMBL3263962</t>
-        </is>
-      </c>
-      <c r="B315" t="n">
-        <v>1</v>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>COc1cc2c(Oc3ccc(NS(=O)(=O)c4cccc(-c5cnn(C)c5)c4)cc3F)ccnc2cc1OCCCN1CCN(C)CC1</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>COc1cc2c(Oc3ccc(NS(=O)(=O)c4cccc(-c5cnn(C)c5)c4)cc3F)ccnc2cc1OCCCN1CCN(C)CC1</t>
-        </is>
-      </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G315" t="n">
-        <v>660.77</v>
-      </c>
-      <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>9</v>
-      </c>
-      <c r="J315" t="n">
-        <v>12</v>
-      </c>
-      <c r="K315" t="n">
-        <v>6</v>
-      </c>
-      <c r="L315" t="n">
-        <v>5</v>
-      </c>
-      <c r="M315" t="n">
-        <v>111.05</v>
-      </c>
-      <c r="N315" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O315" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P315" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q315" t="n">
-        <v>564</v>
-      </c>
-      <c r="R315" t="inlineStr">
-        <is>
-          <t>CHEMBL3266281</t>
-        </is>
-      </c>
-      <c r="S315" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant c-MET (unknown origin) using poly-AEKY peptide as substrate after 60 mins by ADPGlo assay</t>
-        </is>
-      </c>
-      <c r="T315" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>CHEMBL3321901</t>
-        </is>
-      </c>
-      <c r="B316" t="n">
-        <v>1</v>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>Fc1ccc(-c2nc3ccc(Nc4ncnc5ccccc45)cc3[nH]2)cc1</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>Fc1ccc(-c2nc3ccc(Nc4ncnc5ccccc45)cc3[nH]2)cc1</t>
-        </is>
-      </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G316" t="n">
-        <v>355.38</v>
-      </c>
-      <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="n">
-        <v>4</v>
-      </c>
-      <c r="J316" t="n">
-        <v>3</v>
-      </c>
-      <c r="K316" t="n">
-        <v>5</v>
-      </c>
-      <c r="L316" t="n">
-        <v>5</v>
-      </c>
-      <c r="M316" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="N316" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O316" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P316" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q316" t="n">
-        <v>50</v>
-      </c>
-      <c r="R316" t="inlineStr">
-        <is>
-          <t>CHEMBL3368963</t>
-        </is>
-      </c>
-      <c r="S316" t="inlineStr">
-        <is>
-          <t>Inhibition of human recombinant c-Met pre-incubated for 5 mins before ATP/substrate peptide cocktail addition measured after 30 mins by colorimetric ELISA assay</t>
-        </is>
-      </c>
-      <c r="T316" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>CHEMBL2442139</t>
-        </is>
-      </c>
-      <c r="B317" t="n">
-        <v>1</v>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>CC(Sc1cc(-c2ccc(OCC(=O)N3CCOCC3)cc2)cnc1N)c1c(Cl)ccc(F)c1Cl</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>CC(Sc1cc(-c2ccc(OCC(=O)N3CCOCC3)cc2)cnc1N)c1c(Cl)ccc(F)c1Cl</t>
-        </is>
-      </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G317" t="n">
-        <v>536.46</v>
-      </c>
-      <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>6</v>
-      </c>
-      <c r="J317" t="n">
-        <v>7</v>
-      </c>
-      <c r="K317" t="n">
-        <v>4</v>
-      </c>
-      <c r="L317" t="n">
-        <v>3</v>
-      </c>
-      <c r="M317" t="n">
-        <v>77.68000000000001</v>
-      </c>
-      <c r="N317" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O317" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P317" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q317" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="R317" t="inlineStr">
-        <is>
-          <t>CHEMBL2447158</t>
-        </is>
-      </c>
-      <c r="S317" t="inlineStr">
-        <is>
-          <t>Inhibition of c-Met (unknown origin) using poly (Glu, Tyr) 4:1 as substrate after 60 mins by ELISA</t>
-        </is>
-      </c>
-      <c r="T317" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>CHEMBL3678512</t>
-        </is>
-      </c>
-      <c r="B318" t="n">
-        <v>1</v>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>[C-]#[N+]C1=C(C(F)F)Nc2onc(C)c2C1c1cc2c(C)n[nH]c2cc1F</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>[C-]#[N+]C1=C(C(F)F)Nc2onc(C)c2C1c1cc2c(C)n[nH]c2cc1F</t>
-        </is>
-      </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G318" t="n">
-        <v>359.31</v>
-      </c>
-      <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="n">
-        <v>4</v>
-      </c>
-      <c r="J318" t="n">
-        <v>2</v>
-      </c>
-      <c r="K318" t="n">
-        <v>4</v>
-      </c>
-      <c r="L318" t="n">
-        <v>3</v>
-      </c>
-      <c r="M318" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="N318" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O318" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P318" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q318" t="n">
-        <v>100</v>
-      </c>
-      <c r="R318" t="inlineStr">
-        <is>
-          <t>CHEMBL3706315</t>
-        </is>
-      </c>
-      <c r="S318" t="inlineStr">
-        <is>
-          <t>Tyrosine Kinase Activity Assay: Recombinant human c-Met protein (Invitrogen, Carlsbad, Calif., USA) is used. As substrate for the kinase reaction the peptide KKKSPGEYVNIEFG (JPT, Germany) is used. For the assay, 1 uL of a 51-fold concentrated solution of the test compound in DMSO is pipetted into a white 384-well microtiter plate (Greiner Bio-One, Frickenhausen, Germany). 25 uL of a solution of c-Met (final concentration 30 nM) and pyruvate kinase/lactate dehydrogenase (Roche Diagnostics, Mannheim, Germany; final concentration 8 mg/L) in assay buffer [3-(N-morpholino)propanesulfonic acid (MOPS), 50 mM, pH 7; MgCl2, 10 mM; bovine serum albumin (BSA), 0.01%; Triton X 100, 0.01%; DTT, 2 mM] are added, and the mixture is incubated for 5 min at room temperature. Then, the kinase reaction is started by the addition of 25 uL of a solution of adenosine triphosphate (ATP, final concentration 30 uM), substrate (final concentration 100 uM), nicotinamide adenine dinucleotide.</t>
-        </is>
-      </c>
-      <c r="T318" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>CHEMBL50</t>
-        </is>
-      </c>
-      <c r="B319" t="n">
-        <v>1</v>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>O=c1c(O)c(-c2ccc(O)c(O)c2)oc2cc(O)cc(O)c12</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>O=c1c(O)c(-c2ccc(O)c(O)c2)oc2cc(O)cc(O)c12</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F319" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G319" t="n">
-        <v>302.24</v>
-      </c>
-      <c r="H319" t="n">
-        <v>5</v>
-      </c>
-      <c r="I319" t="n">
-        <v>7</v>
-      </c>
-      <c r="J319" t="n">
-        <v>1</v>
-      </c>
-      <c r="K319" t="n">
-        <v>3</v>
-      </c>
-      <c r="L319" t="n">
-        <v>3</v>
-      </c>
-      <c r="M319" t="n">
-        <v>131.36</v>
-      </c>
-      <c r="N319" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O319" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P319" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q319" t="n">
-        <v>580</v>
-      </c>
-      <c r="R319" t="inlineStr">
-        <is>
-          <t>CHEMBL3108321</t>
-        </is>
-      </c>
-      <c r="S319" t="inlineStr">
-        <is>
-          <t>Inhibition of wild type MET (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T319" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>CHEMBL3417459</t>
-        </is>
-      </c>
-      <c r="B320" t="n">
-        <v>1</v>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>CN(C)CCCCOC(=O)Nc1cccc(Cn2nc(Nc3ccccc3)ccc2=O)c1</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>CN(C)CCCCOC(=O)Nc1cccc(Cn2nc(Nc3ccccc3)ccc2=O)c1</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F320" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G320" t="n">
-        <v>435.53</v>
-      </c>
-      <c r="H320" t="n">
-        <v>2</v>
-      </c>
-      <c r="I320" t="n">
-        <v>6</v>
-      </c>
-      <c r="J320" t="n">
-        <v>10</v>
-      </c>
-      <c r="K320" t="n">
-        <v>3</v>
-      </c>
-      <c r="L320" t="n">
-        <v>3</v>
-      </c>
-      <c r="M320" t="n">
-        <v>88.48999999999999</v>
-      </c>
-      <c r="N320" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O320" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P320" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q320" t="n">
-        <v>360</v>
-      </c>
-      <c r="R320" t="inlineStr">
-        <is>
-          <t>CHEMBL3420280</t>
-        </is>
-      </c>
-      <c r="S320" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant c-Met (unknown origin) using poly (Glu,Tyr)4:1 substrate incubated for 60 mins by ELISA method</t>
-        </is>
-      </c>
-      <c r="T320" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>CHEMBL3104851</t>
-        </is>
-      </c>
-      <c r="B321" t="n">
-        <v>1</v>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>Cc1c(O)c(O)c2c(c1C=O)[C@@H]1O[C@H](O2)c2c(C)c(O)c(O)c(O)c2C1=O</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>Cc1c(O)c(O)c2c(c1C=O)[C@@H]1O[C@H](O2)c2c(C)c(O)c(O)c(O)c2C1=O</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F321" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G321" t="n">
-        <v>374.3</v>
-      </c>
-      <c r="H321" t="n">
-        <v>5</v>
-      </c>
-      <c r="I321" t="n">
-        <v>9</v>
-      </c>
-      <c r="J321" t="n">
-        <v>1</v>
-      </c>
-      <c r="K321" t="n">
-        <v>4</v>
-      </c>
-      <c r="L321" t="n">
-        <v>2</v>
-      </c>
-      <c r="M321" t="n">
-        <v>153.75</v>
-      </c>
-      <c r="N321" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O321" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P321" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q321" t="n">
-        <v>580</v>
-      </c>
-      <c r="R321" t="inlineStr">
-        <is>
-          <t>CHEMBL3108321</t>
-        </is>
-      </c>
-      <c r="S321" t="inlineStr">
-        <is>
-          <t>Inhibition of wild type MET (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T321" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>CHEMBL1822789</t>
-        </is>
-      </c>
-      <c r="B322" t="n">
-        <v>1</v>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>OCCCNc1nccc(-c2[nH]c(-c3c(Cl)cc(OCCO)cc3Cl)nc2-c2cccc(OCc3ccccn3)c2)n1</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>OCCCNc1nccc(-c2[nH]c(-c3c(Cl)cc(OCCO)cc3Cl)nc2-c2cccc(OCc3ccccn3)c2)n1</t>
-        </is>
-      </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G322" t="n">
-        <v>607.5</v>
-      </c>
-      <c r="H322" t="n">
-        <v>4</v>
-      </c>
-      <c r="I322" t="n">
-        <v>9</v>
-      </c>
-      <c r="J322" t="n">
-        <v>13</v>
-      </c>
-      <c r="K322" t="n">
-        <v>5</v>
-      </c>
-      <c r="L322" t="n">
-        <v>5</v>
-      </c>
-      <c r="M322" t="n">
-        <v>138.3</v>
-      </c>
-      <c r="N322" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O322" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P322" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q322" t="n">
-        <v>22</v>
-      </c>
-      <c r="R322" t="inlineStr">
-        <is>
-          <t>CHEMBL1826790</t>
-        </is>
-      </c>
-      <c r="S322" t="inlineStr">
-        <is>
-          <t>Inhibition of human c-MET</t>
-        </is>
-      </c>
-      <c r="T322" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>CHEMBL3919372</t>
-        </is>
-      </c>
-      <c r="B323" t="n">
-        <v>1</v>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>Cn1cc(-c2cnc3nnn(CC4CCCN(c5ncc(-c6cnn(C7CCNCC7)c6)cn5)C4)c3n2)cn1</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>Cn1cc(-c2cnc3nnn(CC4CCCN(c5ncc(-c6cnn(C7CCNCC7)c6)cn5)C4)c3n2)cn1</t>
-        </is>
-      </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G323" t="n">
-        <v>525.63</v>
-      </c>
-      <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>10</v>
-      </c>
-      <c r="J323" t="n">
-        <v>6</v>
-      </c>
-      <c r="K323" t="n">
-        <v>7</v>
-      </c>
-      <c r="L323" t="n">
-        <v>5</v>
-      </c>
-      <c r="M323" t="n">
-        <v>133.18</v>
-      </c>
-      <c r="N323" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O323" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P323" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q323" t="n">
-        <v>2</v>
-      </c>
-      <c r="R323" t="inlineStr">
-        <is>
-          <t>CHEMBL3888808</t>
-        </is>
-      </c>
-      <c r="S323" t="inlineStr">
-        <is>
-          <t>Lanthanide Fluoro-Immunoassay: The c-Met kinase inhibitory activity was analyzed using dissociation enhanced lanthanide fluoro-immunoassay (DELFIA, Perkin Elmer), which is a kind of time-resolved fluorescence (TRF). 10 mL of the compound prepared in the present invention, as a test compound, was put in a Greiner 96-well V-shaped bottom plate, and a tyrosin kinase buffer (20 mL) mixed with a c-Met enzyme was added thereto, and then the enzyme and the test compound were stirred for 15 minutes, followed by culturing. An ATP solution (10 mL) was added thereto to proceed with a kinase reaction at room temperature for 30 minutes, and then a 50 mM ethylene diamine acetic acid solution (EDTA, 40 mL) was added to stop the reaction. After that, the reaction mixture was transferred to a plate coated with Streptavidin, followed by culturing under shaking. After 2 hours, the cultured material was washed three times with a PBS-T buffer (PBS 0.05% Tween 20). The europium-labeled anti-phosphotyrosine antibody was diluted to 1:2,500, and 100 mL of the diluent was added per well, followed by culturing under shaking. After 1 hour, the cultured material was washed three times with a PBS-T buffer (PBS 0.05% Tween 20). 100 mL of an enhancement solution was added, followed by shaking culturing for 5 minutes, and then the reaction material was read out within a wavelength range of 615/665 nm using a Wallac Envision 2103 device.</t>
-        </is>
-      </c>
-      <c r="T323" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>CHEMBL3394452</t>
-        </is>
-      </c>
-      <c r="B324" t="n">
-        <v>1</v>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>Nc1noc2cccc(-c3ccc(NC(=O)C4(C(=O)Nc5ccc(C(F)(F)F)cc5)CC4)cc3)c12</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>Nc1noc2cccc(-c3ccc(NC(=O)C4(C(=O)Nc5ccc(C(F)(F)F)cc5)CC4)cc3)c12</t>
-        </is>
-      </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G324" t="n">
-        <v>480.45</v>
-      </c>
-      <c r="H324" t="n">
-        <v>3</v>
-      </c>
-      <c r="I324" t="n">
-        <v>5</v>
-      </c>
-      <c r="J324" t="n">
-        <v>5</v>
-      </c>
-      <c r="K324" t="n">
-        <v>5</v>
-      </c>
-      <c r="L324" t="n">
-        <v>4</v>
-      </c>
-      <c r="M324" t="n">
-        <v>110.25</v>
-      </c>
-      <c r="N324" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O324" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P324" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q324" t="n">
-        <v>566</v>
-      </c>
-      <c r="R324" t="inlineStr">
-        <is>
-          <t>CHEMBL3396121</t>
-        </is>
-      </c>
-      <c r="S324" t="inlineStr">
-        <is>
-          <t>Inhibition of purified recombinant c-MET (unknown origin) using poly (Glu, Tyr) substrate after 60 mins by ELISA</t>
-        </is>
-      </c>
-      <c r="T324" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>CHEMBL4214671</t>
-        </is>
-      </c>
-      <c r="B325" t="n">
-        <v>1</v>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>CCNC(=O)c1cc(Oc2ccc(NC(=O)c3cc4cccnc4n(-c4ccc(F)cc4)c3=O)cc2)ccn1</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>CCNC(=O)c1cc(Oc2ccc(NC(=O)c3cc4cccnc4n(-c4ccc(F)cc4)c3=O)cc2)ccn1</t>
-        </is>
-      </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G325" t="n">
-        <v>523.52</v>
-      </c>
-      <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="n">
-        <v>6</v>
-      </c>
-      <c r="J325" t="n">
-        <v>7</v>
-      </c>
-      <c r="K325" t="n">
-        <v>5</v>
-      </c>
-      <c r="L325" t="n">
-        <v>5</v>
-      </c>
-      <c r="M325" t="n">
-        <v>115.21</v>
-      </c>
-      <c r="N325" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O325" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P325" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q325" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="R325" t="inlineStr">
-        <is>
-          <t>CHEMBL4185092</t>
-        </is>
-      </c>
-      <c r="S325" t="inlineStr">
-        <is>
-          <t>Inhibition of c-MET (unknown origin) using poly (Glu, Tyr) 4:1 as substrate after 30 mins in presence of ATP by HTRF assay</t>
-        </is>
-      </c>
-      <c r="T325" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>CHEMBL1822793</t>
-        </is>
-      </c>
-      <c r="B326" t="n">
-        <v>1</v>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>O=S(=O)(c1c(Cl)nc2sccn12)[N+]1=C2C=C(N3CCNCC3)C=NC2C=C1</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>O=S(=O)(c1c(Cl)nc2sccn12)[N+]1=C2C=C(N3CCNCC3)C=NC2C=C1</t>
-        </is>
-      </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G326" t="n">
-        <v>423.93</v>
-      </c>
-      <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>5</v>
-      </c>
-      <c r="J326" t="n">
-        <v>3</v>
-      </c>
-      <c r="K326" t="n">
-        <v>5</v>
-      </c>
-      <c r="L326" t="n">
-        <v>2</v>
-      </c>
-      <c r="M326" t="n">
-        <v>82.08</v>
-      </c>
-      <c r="N326" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O326" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P326" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q326" t="n">
-        <v>24</v>
-      </c>
-      <c r="R326" t="inlineStr">
-        <is>
-          <t>CHEMBL1826790</t>
-        </is>
-      </c>
-      <c r="S326" t="inlineStr">
-        <is>
-          <t>Inhibition of human c-MET</t>
-        </is>
-      </c>
-      <c r="T326" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>CHEMBL1822561</t>
-        </is>
-      </c>
-      <c r="B327" t="n">
-        <v>1</v>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>CC(C(=O)N/N=C1\C(=O)Nc2ccc(C(=O)N3CCCC3CN3CCCC3)c(Cl)c21)c1ccc(F)cc1</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>CC(C(=O)N/N=C1\C(=O)Nc2ccc(C(=O)N3CCCC3CN3CCCC3)c(Cl)c21)c1ccc(F)cc1</t>
-        </is>
-      </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G327" t="n">
-        <v>526.01</v>
-      </c>
-      <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="n">
-        <v>4</v>
-      </c>
-      <c r="J327" t="n">
-        <v>6</v>
-      </c>
-      <c r="K327" t="n">
-        <v>5</v>
-      </c>
-      <c r="L327" t="n">
-        <v>2</v>
-      </c>
-      <c r="M327" t="n">
-        <v>94.11</v>
-      </c>
-      <c r="N327" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O327" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P327" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q327" t="n">
-        <v>430</v>
-      </c>
-      <c r="R327" t="inlineStr">
-        <is>
-          <t>CHEMBL1826790</t>
-        </is>
-      </c>
-      <c r="S327" t="inlineStr">
-        <is>
-          <t>Inhibition of human c-MET</t>
-        </is>
-      </c>
-      <c r="T327" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>CHEMBL1823126</t>
-        </is>
-      </c>
-      <c r="B328" t="n">
-        <v>1</v>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>Fc1ccc(Cc2nnc3ncc(-c4cccs4)nn23)cc1</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>Fc1ccc(Cc2nnc3ncc(-c4cccs4)nn23)cc1</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G328" t="n">
-        <v>311.35</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="n">
-        <v>4</v>
-      </c>
-      <c r="J328" t="n">
-        <v>3</v>
-      </c>
-      <c r="K328" t="n">
-        <v>4</v>
-      </c>
-      <c r="L328" t="n">
-        <v>4</v>
-      </c>
-      <c r="M328" t="n">
-        <v>55.97</v>
-      </c>
-      <c r="N328" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O328" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P328" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q328" t="n">
-        <v>13</v>
-      </c>
-      <c r="R328" t="inlineStr">
-        <is>
-          <t>CHEMBL1826790</t>
-        </is>
-      </c>
-      <c r="S328" t="inlineStr">
-        <is>
-          <t>Inhibition of human c-MET</t>
-        </is>
-      </c>
-      <c r="T328" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>CHEMBL3704017</t>
-        </is>
-      </c>
-      <c r="B329" t="n">
-        <v>1</v>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>C/C(=N\OCCO)c1ccc2nnc(Sc3ccc4ncc(N5CCN(C)CC5)cc4c3)n2c1</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>C/C(=N\OCCO)c1ccc2nnc(Sc3ccc4ncc(N5CCN(C)CC5)cc4c3)n2c1</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F329" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G329" t="n">
-        <v>477.59</v>
-      </c>
-      <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>8</v>
-      </c>
-      <c r="J329" t="n">
-        <v>7</v>
-      </c>
-      <c r="K329" t="n">
-        <v>5</v>
-      </c>
-      <c r="L329" t="n">
-        <v>4</v>
-      </c>
-      <c r="M329" t="n">
-        <v>91.38</v>
-      </c>
-      <c r="N329" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O329" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P329" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q329" t="n">
-        <v>10</v>
-      </c>
-      <c r="R329" t="inlineStr">
-        <is>
-          <t>CHEMBL3706358</t>
-        </is>
-      </c>
-      <c r="S329" t="inlineStr">
-        <is>
-          <t>LanthaScreen Assay: The kinase assay is based on the LanthaScreen technology. LanthaScreen is the detection of Time-Resolved Fluorescence Resonance Energy Transfer (TR-FRET) using lanthanide chelates to measure interactions between various binding partners. In a TR-FRET kinase assay, a long-lifetime lanthanide donor species is conjugated to an antibody that specifically binds to a phosphorylated product of a kinase reaction that is labeled with a suitable acceptor fluorophore. This antibody-mediated interaction brings the lanthanide donor and the acceptor into proximity such that resonance energy transfer can take place, resulting in a detectable increase in the FRET signal.The kinase reactions were performed in 384 well microtiter plates in a total reaction volume of 10.05 μL. The assay plates were prepared with 0.05 μL per well of test compound in the appropriate test concentration, as described under preparation of compound dilutions.</t>
-        </is>
-      </c>
-      <c r="T329" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>CHEMBL2333163</t>
-        </is>
-      </c>
-      <c r="B330" t="n">
-        <v>1</v>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>O=C(NCCc1ccc(O)c(Br)c1)/C(Cc1cc(Br)c(O)c(Oc2ccc(CCNC(=O)/C(Cc3cc(Br)c(O)c(-c4cc(C/C(=N\O)C(=O)NCCc5ccc(O)c(Br)c5)cc(Br)c4O)c3)=N/O)cc2Br)c1)=N/O</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>O=C(NCCc1ccc(O)c(Br)c1)/C(Cc1cc(Br)c(O)c(Oc2ccc(CCNC(=O)/C(Cc3cc(Br)c(O)c(-c4cc(C/C(=N\O)C(=O)NCCc5ccc(O)c(Br)c5)cc(Br)c4O)c3)=N/O)cc2Br)c1)=N/O</t>
-        </is>
-      </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G330" t="n">
-        <v>1412.37</v>
-      </c>
-      <c r="H330" t="n">
-        <v>11</v>
-      </c>
-      <c r="I330" t="n">
-        <v>12</v>
-      </c>
-      <c r="J330" t="n">
-        <v>21</v>
-      </c>
-      <c r="K330" t="n">
-        <v>6</v>
-      </c>
-      <c r="L330" t="n">
-        <v>6</v>
-      </c>
-      <c r="M330" t="n">
-        <v>295.45</v>
-      </c>
-      <c r="N330" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O330" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P330" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q330" t="n">
-        <v>800</v>
-      </c>
-      <c r="R330" t="inlineStr">
-        <is>
-          <t>CHEMBL2345559</t>
-        </is>
-      </c>
-      <c r="S330" t="inlineStr">
-        <is>
-          <t>Inhibition of MET (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T330" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>CHEMBL3648324</t>
-        </is>
-      </c>
-      <c r="B331" t="n">
-        <v>1</v>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>CC1=NC(C)=C(C#N)C(c2ccc3[nH]nc(OCCN4CCCCC4)c3c2)C1C#N</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>CC1=NC(C)=C(C#N)C(c2ccc3[nH]nc(OCCN4CCCCC4)c3c2)C1C#N</t>
-        </is>
-      </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G331" t="n">
-        <v>402.5</v>
-      </c>
-      <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>5</v>
-      </c>
-      <c r="J331" t="n">
-        <v>5</v>
-      </c>
-      <c r="K331" t="n">
-        <v>4</v>
-      </c>
-      <c r="L331" t="n">
-        <v>2</v>
-      </c>
-      <c r="M331" t="n">
-        <v>101.09</v>
-      </c>
-      <c r="N331" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O331" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P331" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q331" t="n">
-        <v>15</v>
-      </c>
-      <c r="R331" t="inlineStr">
-        <is>
-          <t>CHEMBL3705062</t>
-        </is>
-      </c>
-      <c r="S331" t="inlineStr">
-        <is>
-          <t>Time-Resolved Fluorescence Assay: Homogeneous time-resolved fluorescence assay using c-Met receptor tyrosine kinase.</t>
-        </is>
-      </c>
-      <c r="T331" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>CHEMBL3263970</t>
-        </is>
-      </c>
-      <c r="B332" t="n">
-        <v>1</v>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>CNC(=O)c1ccccc1Nc1nc(Nc2ccc3c(c2)C(c2ccccc2)CN(C)CC3)ncc1Cl</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>CNC(=O)c1ccccc1Nc1nc(Nc2ccc3c(c2)C(c2ccccc2)CN(C)CC3)ncc1Cl</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G332" t="n">
-        <v>513.05</v>
-      </c>
-      <c r="H332" t="n">
-        <v>3</v>
-      </c>
-      <c r="I332" t="n">
-        <v>6</v>
-      </c>
-      <c r="J332" t="n">
-        <v>6</v>
-      </c>
-      <c r="K332" t="n">
-        <v>5</v>
-      </c>
-      <c r="L332" t="n">
-        <v>4</v>
-      </c>
-      <c r="M332" t="n">
-        <v>82.18000000000001</v>
-      </c>
-      <c r="N332" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O332" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P332" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q332" t="n">
-        <v>25.33</v>
-      </c>
-      <c r="R332" t="inlineStr">
-        <is>
-          <t>CHEMBL3267805</t>
-        </is>
-      </c>
-      <c r="S332" t="inlineStr">
-        <is>
-          <t>Inhibition of purified recombinant c-MET (unknown origin) after 60 mins by ELISA</t>
-        </is>
-      </c>
-      <c r="T332" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>CHEMBL560733</t>
-        </is>
-      </c>
-      <c r="B333" t="n">
-        <v>1</v>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>Cc1cc(O)cc(-c2nn(CC#N)cc2-c2cc(NC[C@H](C)O)nc(-c3cccnc3)n2)c1</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>Cc1cc(O)cc(-c2nn(CC#N)cc2-c2cc(NC[C@H](C)O)nc(-c3cccnc3)n2)c1</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G333" t="n">
-        <v>441.5</v>
-      </c>
-      <c r="H333" t="n">
-        <v>3</v>
-      </c>
-      <c r="I333" t="n">
-        <v>8</v>
-      </c>
-      <c r="J333" t="n">
-        <v>7</v>
-      </c>
-      <c r="K333" t="n">
-        <v>4</v>
-      </c>
-      <c r="L333" t="n">
-        <v>4</v>
-      </c>
-      <c r="M333" t="n">
-        <v>132.77</v>
-      </c>
-      <c r="N333" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O333" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P333" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q333" t="n">
-        <v>11</v>
-      </c>
-      <c r="R333" t="inlineStr">
-        <is>
-          <t>CHEMBL3399483</t>
-        </is>
-      </c>
-      <c r="S333" t="inlineStr">
-        <is>
-          <t>Inhibition of c-Met (unknown origin) incubated for 20 mins followed by [33P]ATP addition measured after 120 mins by HotSpot assay</t>
-        </is>
-      </c>
-      <c r="T333" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>CHEMBL561583</t>
-        </is>
-      </c>
-      <c r="B334" t="n">
-        <v>1</v>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>O=C(O)c1cnc2ccn(S(=O)(=O)c3ccccc3[N+](=O)[O-])c2c1</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>O=C(O)c1cnc2ccn(S(=O)(=O)c3ccccc3[N+](=O)[O-])c2c1</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F334" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G334" t="n">
-        <v>347.31</v>
-      </c>
-      <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>7</v>
-      </c>
-      <c r="J334" t="n">
-        <v>4</v>
-      </c>
-      <c r="K334" t="n">
-        <v>3</v>
-      </c>
-      <c r="L334" t="n">
-        <v>3</v>
-      </c>
-      <c r="M334" t="n">
-        <v>132.4</v>
-      </c>
-      <c r="N334" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O334" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P334" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q334" t="n">
-        <v>310</v>
-      </c>
-      <c r="R334" t="inlineStr">
-        <is>
-          <t>CHEMBL1826790</t>
-        </is>
-      </c>
-      <c r="S334" t="inlineStr">
-        <is>
-          <t>Inhibition of human c-MET</t>
-        </is>
-      </c>
-      <c r="T334" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>CHEMBL4786582</t>
-        </is>
-      </c>
-      <c r="B335" t="n">
-        <v>1</v>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>Clc1cccc(Nc2nn3c(Cn4ccc5ncccc54)nnc3s2)c1</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>Clc1cccc(Nc2nn3c(Cn4ccc5ncccc54)nnc3s2)c1</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G335" t="n">
-        <v>381.85</v>
-      </c>
-      <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>5</v>
-      </c>
-      <c r="J335" t="n">
-        <v>4</v>
-      </c>
-      <c r="K335" t="n">
-        <v>5</v>
-      </c>
-      <c r="L335" t="n">
-        <v>5</v>
-      </c>
-      <c r="M335" t="n">
-        <v>72.93000000000001</v>
-      </c>
-      <c r="N335" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O335" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P335" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q335" t="n">
-        <v>40</v>
-      </c>
-      <c r="R335" t="inlineStr">
-        <is>
-          <t>CHEMBL4715301</t>
-        </is>
-      </c>
-      <c r="S335" t="inlineStr">
-        <is>
-          <t>Inhibition of c-Met (unknown origin) using poly Glu-Tyr as substrate preincubated for 10 mins followed by ATP addition by phosphoenolpyruvate/pyruvate kinase/lactate dehydrogenase coupled radiometric assay</t>
-        </is>
-      </c>
-      <c r="T335" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>CHEMBL2431824</t>
-        </is>
-      </c>
-      <c r="B336" t="n">
-        <v>1</v>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2ccc3nnc([C@@H](C)c4ccc5ncccc5c4)n3n2)cc1C</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2ccc3nnc([C@@H](C)c4ccc5ncccc5c4)n3n2)cc1C</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G336" t="n">
-        <v>395.47</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="n">
-        <v>5</v>
-      </c>
-      <c r="J336" t="n">
-        <v>4</v>
-      </c>
-      <c r="K336" t="n">
-        <v>5</v>
-      </c>
-      <c r="L336" t="n">
-        <v>5</v>
-      </c>
-      <c r="M336" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="N336" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O336" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P336" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q336" t="n">
-        <v>3</v>
-      </c>
-      <c r="R336" t="inlineStr">
-        <is>
-          <t>CHEMBL2434668</t>
-        </is>
-      </c>
-      <c r="S336" t="inlineStr">
-        <is>
-          <t>Inhibition of N-terminal His-6-tagged human recombinant c-Met (974 to 1390) using Ac-ARDMYDKEYYSVHNK as substrate by spectrophotometric assay</t>
-        </is>
-      </c>
-      <c r="T336" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>CHEMBL2103882</t>
-        </is>
-      </c>
-      <c r="B337" t="n">
-        <v>1</v>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)[C@@H](c2cn3c4c(cccc24)CCC3)[C@@H]1c1c[nH]c2ccccc12</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)[C@@H](c2cn3c4c(cccc24)CCC3)[C@@H]1c1c[nH]c2ccccc12</t>
-        </is>
-      </c>
-      <c r="E337" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G337" t="n">
-        <v>369.42</v>
-      </c>
-      <c r="H337" t="n">
-        <v>2</v>
-      </c>
-      <c r="I337" t="n">
-        <v>2</v>
-      </c>
-      <c r="J337" t="n">
-        <v>2</v>
-      </c>
-      <c r="K337" t="n">
-        <v>6</v>
-      </c>
-      <c r="L337" t="n">
-        <v>4</v>
-      </c>
-      <c r="M337" t="n">
-        <v>66.89</v>
-      </c>
-      <c r="N337" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O337" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P337" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q337" t="n">
-        <v>355</v>
-      </c>
-      <c r="R337" t="inlineStr">
-        <is>
-          <t>CHEMBL3767620</t>
-        </is>
-      </c>
-      <c r="S337" t="inlineStr">
-        <is>
-          <t>Inhibition of c-Met (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T337" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>CHEMBL517956</t>
-        </is>
-      </c>
-      <c r="B338" t="n">
-        <v>0</v>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>Cc1ccc(O)cc1CC[C@@H]1[C@H](O)CC[C@]2(C)[C@@H]([C@H](C)CCCC(C)C)CC[C@@H]12</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>Cc1ccc(O)cc1CC[C@H]1[C@@H]2CC[C@H]([C@H](C)CCCC(C)C)[C@@]2(C)CC[C@H]1O</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G338" t="n">
-        <v>400.65</v>
-      </c>
-      <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="n">
-        <v>2</v>
-      </c>
-      <c r="J338" t="n">
-        <v>8</v>
-      </c>
-      <c r="K338" t="n">
-        <v>3</v>
-      </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="n">
-        <v>40.46</v>
-      </c>
-      <c r="N338" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O338" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P338" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q338" t="n">
-        <v>78000</v>
-      </c>
-      <c r="R338" t="inlineStr">
-        <is>
-          <t>CHEMBL1926227</t>
-        </is>
-      </c>
-      <c r="S338" t="inlineStr">
-        <is>
-          <t>Inhibition of wild type human MET using poly(Ala,Glu,Lys,Tyr) as substrate</t>
-        </is>
-      </c>
-      <c r="T338" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>CHEMBL2337906</t>
-        </is>
-      </c>
-      <c r="B339" t="n">
-        <v>0</v>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>Nc1c(S(=O)(=O)[O-])cc(Nc2ccc(Oc3ccc(Nc4cc(S(=O)(=O)[O-])c(N)c5c4C(=O)c4ccccc4C5=O)cc3)cc2)c2c1C(=O)c1ccccc1C2=O</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>Nc1c(S(=O)(=O)[O-])cc(Nc2ccc(Oc3ccc(Nc4cc(S(=O)(=O)[O-])c(N)c5c4C(=O)c4ccccc4C5=O)cc3)cc2)c2c1C(=O)c1ccccc1C2=O</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F339" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G339" t="n">
-        <v>800.78</v>
-      </c>
-      <c r="H339" t="n">
-        <v>4</v>
-      </c>
-      <c r="I339" t="n">
-        <v>15</v>
-      </c>
-      <c r="J339" t="n">
-        <v>8</v>
-      </c>
-      <c r="K339" t="n">
-        <v>8</v>
-      </c>
-      <c r="L339" t="n">
-        <v>8</v>
-      </c>
-      <c r="M339" t="n">
-        <v>268.01</v>
-      </c>
-      <c r="N339" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O339" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P339" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q339" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="R339" t="inlineStr">
-        <is>
-          <t>CHEMBL2340058</t>
-        </is>
-      </c>
-      <c r="S339" t="inlineStr">
-        <is>
-          <t>Inhibition of c-Met (unknown origin) using Poly(Glu,Tyr) at 4:1 ratio as substrate at 10 uM preincubated with substrate prior to enzyme addition measured after 60 mins by ELISA</t>
-        </is>
-      </c>
-      <c r="T339" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>CHEMBL2216825</t>
-        </is>
-      </c>
-      <c r="B340" t="n">
-        <v>0</v>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G340" t="n">
-        <v>457.48</v>
-      </c>
-      <c r="H340" t="n">
-        <v>2</v>
-      </c>
-      <c r="I340" t="n">
-        <v>9</v>
-      </c>
-      <c r="J340" t="n">
-        <v>2</v>
-      </c>
-      <c r="K340" t="n">
-        <v>5</v>
-      </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="n">
-        <v>122.6</v>
-      </c>
-      <c r="N340" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O340" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P340" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q340" t="n">
-        <v>14</v>
-      </c>
-      <c r="R340" t="inlineStr">
-        <is>
-          <t>CHEMBL1019627</t>
-        </is>
-      </c>
-      <c r="S340" t="inlineStr">
-        <is>
-          <t>Inhibition of MET at 1 uM</t>
-        </is>
-      </c>
-      <c r="T340" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>CHEMBL1738828</t>
-        </is>
-      </c>
-      <c r="B341" t="n">
-        <v>0</v>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>O=C(Nc1cc(-c2ccncc2)c[nH]c1=O)c1ccccc1</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>O=C(Nc1cc(-c2ccncc2)c[nH]c1=O)c1ccccc1</t>
-        </is>
-      </c>
-      <c r="E341" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F341" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G341" t="n">
-        <v>291.31</v>
-      </c>
-      <c r="H341" t="n">
-        <v>2</v>
-      </c>
-      <c r="I341" t="n">
-        <v>3</v>
-      </c>
-      <c r="J341" t="n">
-        <v>3</v>
-      </c>
-      <c r="K341" t="n">
-        <v>3</v>
-      </c>
-      <c r="L341" t="n">
-        <v>3</v>
-      </c>
-      <c r="M341" t="n">
-        <v>74.84999999999999</v>
-      </c>
-      <c r="N341" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O341" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P341" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q341" t="n">
-        <v>9</v>
-      </c>
-      <c r="R341" t="inlineStr">
-        <is>
-          <t>CHEMBL4256682</t>
-        </is>
-      </c>
-      <c r="S341" t="inlineStr">
-        <is>
-          <t>Inhibition of MET (unknown origin) at 30 uM using peptide as substrate in presence of ATP and MgCl2 by mobility shift assay relative to control</t>
-        </is>
-      </c>
-      <c r="T341" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>CHEMBL3732044</t>
-        </is>
-      </c>
-      <c r="B342" t="n">
-        <v>0</v>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G342" t="n">
-        <v>282.41</v>
-      </c>
-      <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>4</v>
-      </c>
-      <c r="J342" t="n">
-        <v>5</v>
-      </c>
-      <c r="K342" t="n">
-        <v>2</v>
-      </c>
-      <c r="L342" t="n">
-        <v>0</v>
-      </c>
-      <c r="M342" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="N342" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O342" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P342" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q342" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R342" t="inlineStr">
-        <is>
-          <t>CHEMBL3734488</t>
-        </is>
-      </c>
-      <c r="S342" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human c-MET using fluorescein-labeled peptide as substrate by fluorescence-electrophoretic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T342" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>CHEMBL1813628</t>
-        </is>
-      </c>
-      <c r="B343" t="n">
-        <v>0</v>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2c(C)[nH]c(=O)c3c(N)nn(C)c23)cc1</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2c(C)[nH]c(=O)c3c(N)nn(C)c23)cc1</t>
-        </is>
-      </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G343" t="n">
-        <v>284.32</v>
-      </c>
-      <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="n">
-        <v>4</v>
-      </c>
-      <c r="J343" t="n">
-        <v>2</v>
-      </c>
-      <c r="K343" t="n">
-        <v>3</v>
-      </c>
-      <c r="L343" t="n">
-        <v>3</v>
-      </c>
-      <c r="M343" t="n">
-        <v>85.93000000000001</v>
-      </c>
-      <c r="N343" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O343" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P343" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q343" t="n">
-        <v>18</v>
-      </c>
-      <c r="R343" t="inlineStr">
-        <is>
-          <t>CHEMBL1815730</t>
-        </is>
-      </c>
-      <c r="S343" t="inlineStr">
-        <is>
-          <t>Inhibition of MET at 30 uM by microfluidic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T343" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>CHEMBL2420903</t>
-        </is>
-      </c>
-      <c r="B344" t="n">
-        <v>0</v>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>COC(=O)C1CCC2(CCN(c3ncnc4[nH]cnc34)CC2)NC1</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>COC(=O)C1CCC2(CCN(c3ncnc4[nH]cnc34)CC2)NC1</t>
-        </is>
-      </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G344" t="n">
-        <v>330.39</v>
-      </c>
-      <c r="H344" t="n">
-        <v>2</v>
-      </c>
-      <c r="I344" t="n">
-        <v>7</v>
-      </c>
-      <c r="J344" t="n">
-        <v>2</v>
-      </c>
-      <c r="K344" t="n">
-        <v>4</v>
-      </c>
-      <c r="L344" t="n">
-        <v>2</v>
-      </c>
-      <c r="M344" t="n">
-        <v>96.03</v>
-      </c>
-      <c r="N344" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O344" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P344" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q344" t="n">
-        <v>11</v>
-      </c>
-      <c r="R344" t="inlineStr">
-        <is>
-          <t>CHEMBL2424318</t>
-        </is>
-      </c>
-      <c r="S344" t="inlineStr">
-        <is>
-          <t>Inhibition of MET (unknown origin) at 30 uM by microfluidic mobility shift assay relative to control</t>
-        </is>
-      </c>
-      <c r="T344" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>CHEMBL3408389</t>
-        </is>
-      </c>
-      <c r="B345" t="n">
-        <v>0</v>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>CCOC(=O)c1nn(-c2ccc(Cl)cc2)/c(=N/c2nc(-c3ccccc3)cc(-c3ccccc3)c2C#N)s1</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>CCOC(=O)c1nn(-c2ccc(Cl)cc2)/c(=N/c2nc(-c3ccccc3)cc(-c3ccccc3)c2C#N)s1</t>
-        </is>
-      </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G345" t="n">
-        <v>538.03</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="n">
-        <v>5</v>
-      </c>
-      <c r="J345" t="n">
-        <v>6</v>
-      </c>
-      <c r="K345" t="n">
-        <v>5</v>
-      </c>
-      <c r="L345" t="n">
-        <v>5</v>
-      </c>
-      <c r="M345" t="n">
-        <v>93.16</v>
-      </c>
-      <c r="N345" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O345" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P345" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q345" t="n">
-        <v>12</v>
-      </c>
-      <c r="R345" t="inlineStr">
-        <is>
-          <t>CHEMBL3413727</t>
-        </is>
-      </c>
-      <c r="S345" t="inlineStr">
-        <is>
-          <t>Inhibition of MET (unknown origin) assessed as inhibition of peptide phosphorylation at 30 uM by based microfluidic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T345" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>CHEMBL1940997</t>
-        </is>
-      </c>
-      <c r="B346" t="n">
-        <v>0</v>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>CC(=O)OC[C@H]1O[C@@H](NC(=O)CCCn2[se]c3ccccc3c2=O)[C@H](OC(C)=O)[C@@H](OC(C)=O)[C@@H]1OC(C)=O</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>CC(=O)OC[C@H]1O[C@@H](NC(=O)CCCn2[se]c3ccccc3c2=O)[C@H](OC(C)=O)[C@@H](OC(C)=O)[C@@H]1OC(C)=O</t>
-        </is>
-      </c>
-      <c r="E346" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F346" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G346" t="n">
-        <v>613.48</v>
-      </c>
-      <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>11</v>
-      </c>
-      <c r="J346" t="n">
-        <v>10</v>
-      </c>
-      <c r="K346" t="n">
-        <v>3</v>
-      </c>
-      <c r="L346" t="n">
-        <v>2</v>
-      </c>
-      <c r="M346" t="n">
-        <v>165.53</v>
-      </c>
-      <c r="N346" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O346" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P346" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q346" t="n">
-        <v>0</v>
-      </c>
-      <c r="R346" t="inlineStr">
-        <is>
-          <t>CHEMBL1943931</t>
-        </is>
-      </c>
-      <c r="S346" t="inlineStr">
-        <is>
-          <t>Inhibition of MET at 1 uM</t>
-        </is>
-      </c>
-      <c r="T346" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>CHEMBL4290876</t>
-        </is>
-      </c>
-      <c r="B347" t="n">
-        <v>0</v>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>CNC(=O)Nc1sc2c(C(C)C)cc(NS(=O)(=O)N(C)C)cc2c1C(N)=O</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>CNC(=O)Nc1sc2c(C(C)C)cc(NS(=O)(=O)N(C)C)cc2c1C(N)=O</t>
-        </is>
-      </c>
-      <c r="E347" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F347" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G347" t="n">
-        <v>413.53</v>
-      </c>
-      <c r="H347" t="n">
-        <v>4</v>
-      </c>
-      <c r="I347" t="n">
-        <v>4</v>
-      </c>
-      <c r="J347" t="n">
-        <v>6</v>
-      </c>
-      <c r="K347" t="n">
-        <v>2</v>
-      </c>
-      <c r="L347" t="n">
-        <v>2</v>
-      </c>
-      <c r="M347" t="n">
-        <v>133.63</v>
-      </c>
-      <c r="N347" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O347" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P347" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q347" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="R347" t="inlineStr">
-        <is>
-          <t>CHEMBL4266871</t>
-        </is>
-      </c>
-      <c r="S347" t="inlineStr">
-        <is>
-          <t>Inhibition of c-MET (unknown origin) at 1 uM</t>
-        </is>
-      </c>
-      <c r="T347" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>CHEMBL2071394</t>
-        </is>
-      </c>
-      <c r="B348" t="n">
-        <v>0</v>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>CN(Cc1c(F)ccc(Cl)c1F)C(=O)c1cc(-c2cnn(C)c2)cnc1N</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>CN(Cc1c(F)ccc(Cl)c1F)C(=O)c1cc(-c2cnn(C)c2)cnc1N</t>
-        </is>
-      </c>
-      <c r="E348" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G348" t="n">
-        <v>391.81</v>
-      </c>
-      <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>4</v>
-      </c>
-      <c r="J348" t="n">
-        <v>4</v>
-      </c>
-      <c r="K348" t="n">
-        <v>3</v>
-      </c>
-      <c r="L348" t="n">
-        <v>3</v>
-      </c>
-      <c r="M348" t="n">
-        <v>77.04000000000001</v>
-      </c>
-      <c r="N348" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O348" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P348" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q348" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="R348" t="inlineStr">
-        <is>
-          <t>CHEMBL2072591</t>
-        </is>
-      </c>
-      <c r="S348" t="inlineStr">
-        <is>
-          <t>Inhibition of c-Met at 1 uM incubated for 60 mins by spectrophotometry</t>
-        </is>
-      </c>
-      <c r="T348" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>CHEMBL1813803</t>
-        </is>
-      </c>
-      <c r="B349" t="n">
-        <v>0</v>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>Cc1cc2[nH]nc(N)c2cn1</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>Cc1cc2[nH]nc(N)c2cn1</t>
-        </is>
-      </c>
-      <c r="E349" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G349" t="n">
-        <v>148.17</v>
-      </c>
-      <c r="H349" t="n">
-        <v>2</v>
-      </c>
-      <c r="I349" t="n">
-        <v>3</v>
-      </c>
-      <c r="J349" t="n">
-        <v>0</v>
-      </c>
-      <c r="K349" t="n">
-        <v>2</v>
-      </c>
-      <c r="L349" t="n">
-        <v>2</v>
-      </c>
-      <c r="M349" t="n">
-        <v>67.59</v>
-      </c>
-      <c r="N349" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O349" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P349" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q349" t="n">
-        <v>3</v>
-      </c>
-      <c r="R349" t="inlineStr">
-        <is>
-          <t>CHEMBL1815730</t>
-        </is>
-      </c>
-      <c r="S349" t="inlineStr">
-        <is>
-          <t>Inhibition of MET at 30 uM by microfluidic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T349" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>CHEMBL4093614</t>
-        </is>
-      </c>
-      <c r="B350" t="n">
-        <v>0</v>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>Cc1[nH]c(/C=C2\C(=O)Nc3ccc(F)cc32)c(C)c1NC(=O)[C@H]1CCCN1</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>Cc1[nH]c(/C=C2\C(=O)Nc3ccc(F)cc32)c(C)c1NC(=O)[C@H]1CCCN1</t>
-        </is>
-      </c>
-      <c r="E350" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F350" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G350" t="n">
-        <v>368.41</v>
-      </c>
-      <c r="H350" t="n">
-        <v>4</v>
-      </c>
-      <c r="I350" t="n">
-        <v>3</v>
-      </c>
-      <c r="J350" t="n">
-        <v>3</v>
-      </c>
-      <c r="K350" t="n">
-        <v>4</v>
-      </c>
-      <c r="L350" t="n">
-        <v>2</v>
-      </c>
-      <c r="M350" t="n">
-        <v>86.02</v>
-      </c>
-      <c r="N350" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O350" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P350" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q350" t="n">
-        <v>-8</v>
-      </c>
-      <c r="R350" t="inlineStr">
-        <is>
-          <t>CHEMBL4007915</t>
-        </is>
-      </c>
-      <c r="S350" t="inlineStr">
-        <is>
-          <t>Inhibition of human c-MET at 0.1 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T350" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>CHEMBL1171699</t>
-        </is>
-      </c>
-      <c r="B351" t="n">
-        <v>0</v>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>OCc1cccc(-c2cnc3ncc(-c4cn[nH]c4)cn23)c1</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>OCc1cccc(-c2cnc3ncc(-c4cn[nH]c4)cn23)c1</t>
-        </is>
-      </c>
-      <c r="E351" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F351" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G351" t="n">
-        <v>291.31</v>
-      </c>
-      <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>4</v>
-      </c>
-      <c r="J351" t="n">
-        <v>3</v>
-      </c>
-      <c r="K351" t="n">
-        <v>4</v>
-      </c>
-      <c r="L351" t="n">
-        <v>4</v>
-      </c>
-      <c r="M351" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="N351" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O351" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P351" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q351" t="n">
-        <v>4</v>
-      </c>
-      <c r="R351" t="inlineStr">
-        <is>
-          <t>CHEMBL1173995</t>
-        </is>
-      </c>
-      <c r="S351" t="inlineStr">
-        <is>
-          <t>Inhibition of MET at 10 uM by mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T351" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>CHEMBL3746959</t>
-        </is>
-      </c>
-      <c r="B352" t="n">
-        <v>0</v>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>Cn1c(=O)c(Oc2ccc(F)cc2F)cc2cnc(Nc3ccc(N4CCC(O)CC4)cc3)nc21</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>Cn1c(=O)c(Oc2ccc(F)cc2F)cc2cnc(Nc3ccc(N4CCC(O)CC4)cc3)nc21</t>
-        </is>
-      </c>
-      <c r="E352" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F352" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G352" t="n">
-        <v>479.49</v>
-      </c>
-      <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>7</v>
-      </c>
-      <c r="J352" t="n">
-        <v>5</v>
-      </c>
-      <c r="K352" t="n">
-        <v>5</v>
-      </c>
-      <c r="L352" t="n">
-        <v>4</v>
-      </c>
-      <c r="M352" t="n">
-        <v>92.51000000000001</v>
-      </c>
-      <c r="N352" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O352" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P352" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q352" t="n">
-        <v>11</v>
-      </c>
-      <c r="R352" t="inlineStr">
-        <is>
-          <t>CHEMBL3750644</t>
-        </is>
-      </c>
-      <c r="S352" t="inlineStr">
-        <is>
-          <t>Inhibition of cMET (unknown origin) at 10 uM</t>
-        </is>
-      </c>
-      <c r="T352" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>CHEMBL4247506</t>
-        </is>
-      </c>
-      <c r="B353" t="n">
-        <v>0</v>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>CC(C)n1nc(C#Cc2cccc3cc(-c4cccc(C(F)(F)F)c4)ncc23)c2c(N)ncnc21</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>CC(C)n1nc(C#Cc2cccc3cc(-c4cccc(C(F)(F)F)c4)ncc23)c2c(N)ncnc21</t>
-        </is>
-      </c>
-      <c r="E353" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F353" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G353" t="n">
-        <v>472.47</v>
-      </c>
-      <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>5</v>
-      </c>
-      <c r="J353" t="n">
-        <v>2</v>
-      </c>
-      <c r="K353" t="n">
-        <v>5</v>
-      </c>
-      <c r="L353" t="n">
-        <v>5</v>
-      </c>
-      <c r="M353" t="n">
-        <v>82.51000000000001</v>
-      </c>
-      <c r="N353" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O353" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P353" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q353" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R353" t="inlineStr">
-        <is>
-          <t>CHEMBL4230144</t>
-        </is>
-      </c>
-      <c r="S353" t="inlineStr">
-        <is>
-          <t>Inhibition of MET (unknown origin) at 1 uM by mobility shift microfluidics platform based assay relative to control</t>
-        </is>
-      </c>
-      <c r="T353" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>CHEMBL2402081</t>
-        </is>
-      </c>
-      <c r="B354" t="n">
-        <v>0</v>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>CC[C@@H]1C(=O)N(C)c2cnc(-n3ccnc3-c3ccc(F)cc3)nc2N1c1ccn(C)n1</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>CC[C@@H]1C(=O)N(C)c2cnc(-n3ccnc3-c3ccc(F)cc3)nc2N1c1ccn(C)n1</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F354" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G354" t="n">
-        <v>432.46</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="n">
-        <v>6</v>
-      </c>
-      <c r="J354" t="n">
-        <v>4</v>
-      </c>
-      <c r="K354" t="n">
-        <v>5</v>
-      </c>
-      <c r="L354" t="n">
-        <v>4</v>
-      </c>
-      <c r="M354" t="n">
-        <v>84.97</v>
-      </c>
-      <c r="N354" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O354" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P354" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q354" t="n">
-        <v>5</v>
-      </c>
-      <c r="R354" t="inlineStr">
-        <is>
-          <t>CHEMBL2404173</t>
-        </is>
-      </c>
-      <c r="S354" t="inlineStr">
-        <is>
-          <t>Inhibition of MET (unknown origin) at 10 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T354" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>CHEMBL2348316</t>
-        </is>
-      </c>
-      <c r="B355" t="n">
-        <v>0</v>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>COc1cc(/C=C/C(=O)OCCc2ccc(O)cc2)cc(OC)c1OC</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>COc1cc(/C=C/C(=O)OCCc2ccc(O)cc2)cc(OC)c1OC</t>
-        </is>
-      </c>
-      <c r="E355" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F355" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G355" t="n">
-        <v>358.39</v>
-      </c>
-      <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>6</v>
-      </c>
-      <c r="J355" t="n">
-        <v>8</v>
-      </c>
-      <c r="K355" t="n">
-        <v>2</v>
-      </c>
-      <c r="L355" t="n">
-        <v>2</v>
-      </c>
-      <c r="M355" t="n">
-        <v>74.22</v>
-      </c>
-      <c r="N355" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O355" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P355" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q355" t="n">
-        <v>0</v>
-      </c>
-      <c r="R355" t="inlineStr">
-        <is>
-          <t>CHEMBL2350425</t>
-        </is>
-      </c>
-      <c r="S355" t="inlineStr">
-        <is>
-          <t>Inhibition of c-MET phosphorylation (unknown origin) at 25 uM after 1 hr by Z'-LYTE kinase assay</t>
-        </is>
-      </c>
-      <c r="T355" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>CHEMBL3236549</t>
-        </is>
-      </c>
-      <c r="B356" t="n">
-        <v>0</v>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>CC(C)c1cc(N2CC[C@@H](N)C2)nc(N)n1</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>CC(C)c1cc(N2CC[C@@H](N)C2)nc(N)n1</t>
-        </is>
-      </c>
-      <c r="E356" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G356" t="n">
-        <v>221.31</v>
-      </c>
-      <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="n">
-        <v>5</v>
-      </c>
-      <c r="J356" t="n">
-        <v>2</v>
-      </c>
-      <c r="K356" t="n">
-        <v>2</v>
-      </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="n">
-        <v>81.06</v>
-      </c>
-      <c r="N356" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O356" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P356" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q356" t="n">
-        <v>-15</v>
-      </c>
-      <c r="R356" t="inlineStr">
-        <is>
-          <t>CHEMBL5058932</t>
-        </is>
-      </c>
-      <c r="S356" t="inlineStr">
-        <is>
-          <t>Met(h) Millipore kinase panel</t>
-        </is>
-      </c>
-      <c r="T356" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>CHEMBL1516890</t>
-        </is>
-      </c>
-      <c r="B357" t="n">
-        <v>0</v>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F357" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G357" t="n">
-        <v>275.31</v>
-      </c>
-      <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>2</v>
-      </c>
-      <c r="J357" t="n">
-        <v>1</v>
-      </c>
-      <c r="K357" t="n">
-        <v>4</v>
-      </c>
-      <c r="L357" t="n">
-        <v>3</v>
-      </c>
-      <c r="M357" t="n">
-        <v>46.92</v>
-      </c>
-      <c r="N357" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O357" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P357" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q357" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="R357" t="inlineStr">
-        <is>
-          <t>CHEMBL1962143</t>
-        </is>
-      </c>
-      <c r="S357" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T357" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>CHEMBL156524</t>
-        </is>
-      </c>
-      <c r="B358" t="n">
-        <v>0</v>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(N2CCc3ccccc32)=C1c1ccc(Cl)cc1</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(N2CCc3ccccc32)=C1c1ccc(Cl)cc1</t>
-        </is>
-      </c>
-      <c r="E358" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F358" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G358" t="n">
-        <v>324.77</v>
-      </c>
-      <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>3</v>
-      </c>
-      <c r="J358" t="n">
-        <v>2</v>
-      </c>
-      <c r="K358" t="n">
-        <v>4</v>
-      </c>
-      <c r="L358" t="n">
-        <v>2</v>
-      </c>
-      <c r="M358" t="n">
-        <v>49.41</v>
-      </c>
-      <c r="N358" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O358" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P358" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q358" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="R358" t="inlineStr">
-        <is>
-          <t>CHEMBL1962143</t>
-        </is>
-      </c>
-      <c r="S358" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T358" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>CHEMBL1909351</t>
-        </is>
-      </c>
-      <c r="B359" t="n">
-        <v>0</v>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1cccc(Nc2cc(-c3ccc(F)cc3)n[nH]2)c1</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1cccc(Nc2cc(-c3ccc(F)cc3)n[nH]2)c1</t>
-        </is>
-      </c>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F359" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G359" t="n">
-        <v>332.36</v>
-      </c>
-      <c r="H359" t="n">
-        <v>3</v>
-      </c>
-      <c r="I359" t="n">
-        <v>4</v>
-      </c>
-      <c r="J359" t="n">
-        <v>4</v>
-      </c>
-      <c r="K359" t="n">
-        <v>3</v>
-      </c>
-      <c r="L359" t="n">
-        <v>3</v>
-      </c>
-      <c r="M359" t="n">
-        <v>100.87</v>
-      </c>
-      <c r="N359" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O359" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P359" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q359" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="R359" t="inlineStr">
-        <is>
-          <t>CHEMBL1962143</t>
-        </is>
-      </c>
-      <c r="S359" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T359" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>CHEMBL1909353</t>
-        </is>
-      </c>
-      <c r="B360" t="n">
-        <v>0</v>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>Cc1cc(-c2ccco2)cc(C)c1/C=C/c1cncc(-c2nn[nH]n2)c1</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>Cc1cc(-c2ccco2)cc(C)c1/C=C/c1cncc(-c2nn[nH]n2)c1</t>
-        </is>
-      </c>
-      <c r="E360" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F360" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G360" t="n">
-        <v>343.39</v>
-      </c>
-      <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>5</v>
-      </c>
-      <c r="J360" t="n">
-        <v>4</v>
-      </c>
-      <c r="K360" t="n">
-        <v>4</v>
-      </c>
-      <c r="L360" t="n">
-        <v>4</v>
-      </c>
-      <c r="M360" t="n">
-        <v>80.48999999999999</v>
-      </c>
-      <c r="N360" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O360" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P360" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q360" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="R360" t="inlineStr">
-        <is>
-          <t>CHEMBL1962143</t>
-        </is>
-      </c>
-      <c r="S360" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T360" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>CHEMBL1909367</t>
-        </is>
-      </c>
-      <c r="B361" t="n">
-        <v>0</v>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>COC(=O)Nc1nc2ccc(S(=O)(=O)c3ccc(NC(=O)Nc4cc(C(F)(F)F)ccc4F)cc3)cc2[nH]1</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>COC(=O)Nc1nc2ccc(S(=O)(=O)c3ccc(NC(=O)Nc4cc(C(F)(F)F)ccc4F)cc3)cc2[nH]1</t>
-        </is>
-      </c>
-      <c r="E361" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F361" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G361" t="n">
-        <v>551.48</v>
-      </c>
-      <c r="H361" t="n">
-        <v>4</v>
-      </c>
-      <c r="I361" t="n">
-        <v>6</v>
-      </c>
-      <c r="J361" t="n">
-        <v>5</v>
-      </c>
-      <c r="K361" t="n">
-        <v>4</v>
-      </c>
-      <c r="L361" t="n">
-        <v>4</v>
-      </c>
-      <c r="M361" t="n">
-        <v>142.28</v>
-      </c>
-      <c r="N361" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O361" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P361" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q361" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="R361" t="inlineStr">
-        <is>
-          <t>CHEMBL1962142</t>
-        </is>
-      </c>
-      <c r="S361" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T361" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>CHEMBL1909380</t>
-        </is>
-      </c>
-      <c r="B362" t="n">
-        <v>0</v>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
-        </is>
-      </c>
-      <c r="E362" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G362" t="n">
-        <v>411.47</v>
-      </c>
-      <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>6</v>
-      </c>
-      <c r="J362" t="n">
-        <v>6</v>
-      </c>
-      <c r="K362" t="n">
-        <v>5</v>
-      </c>
-      <c r="L362" t="n">
-        <v>5</v>
-      </c>
-      <c r="M362" t="n">
-        <v>74.09</v>
-      </c>
-      <c r="N362" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O362" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P362" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q362" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="R362" t="inlineStr">
-        <is>
-          <t>CHEMBL1962143</t>
-        </is>
-      </c>
-      <c r="S362" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T362" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>CHEMBL205158</t>
-        </is>
-      </c>
-      <c r="B363" t="n">
-        <v>0</v>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>c1ccc(-c2n[nH]cc2-c2ccnc(-c3ccc(OCCN4CCOCC4)cc3)c2)nc1</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>c1ccc(-c2n[nH]cc2-c2ccnc(-c3ccc(OCCN4CCOCC4)cc3)c2)nc1</t>
-        </is>
-      </c>
-      <c r="E363" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G363" t="n">
-        <v>427.51</v>
-      </c>
-      <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>6</v>
-      </c>
-      <c r="J363" t="n">
-        <v>7</v>
-      </c>
-      <c r="K363" t="n">
-        <v>5</v>
-      </c>
-      <c r="L363" t="n">
-        <v>4</v>
-      </c>
-      <c r="M363" t="n">
-        <v>76.16</v>
-      </c>
-      <c r="N363" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O363" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P363" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q363" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="R363" t="inlineStr">
-        <is>
-          <t>CHEMBL1962143</t>
-        </is>
-      </c>
-      <c r="S363" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T363" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>CHEMBL2062290</t>
-        </is>
-      </c>
-      <c r="B364" t="n">
-        <v>0</v>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>CCN1CCC(CC(=O)Nc2n[nH]c3nc(-c4cccs4)c(Br)cc23)CC1</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>CCN1CCC(CC(=O)Nc2n[nH]c3nc(-c4cccs4)c(Br)cc23)CC1</t>
-        </is>
-      </c>
-      <c r="E364" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G364" t="n">
-        <v>448.39</v>
-      </c>
-      <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>4</v>
-      </c>
-      <c r="J364" t="n">
-        <v>5</v>
-      </c>
-      <c r="K364" t="n">
-        <v>4</v>
-      </c>
-      <c r="L364" t="n">
-        <v>3</v>
-      </c>
-      <c r="M364" t="n">
-        <v>73.91</v>
-      </c>
-      <c r="N364" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O364" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P364" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q364" t="n">
-        <v>-0.55</v>
-      </c>
-      <c r="R364" t="inlineStr">
-        <is>
-          <t>CHEMBL1962142</t>
-        </is>
-      </c>
-      <c r="S364" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T364" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>CHEMBL220465</t>
-        </is>
-      </c>
-      <c r="B365" t="n">
-        <v>0</v>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2cnc(Oc3cccc(NC(=O)c4ccc(N(C)C)cc4)c3)cc21</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2cnc(Oc3cccc(NC(=O)c4ccc(N(C)C)cc4)c3)cc21</t>
-        </is>
-      </c>
-      <c r="E365" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G365" t="n">
-        <v>484.52</v>
-      </c>
-      <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="n">
-        <v>9</v>
-      </c>
-      <c r="J365" t="n">
-        <v>7</v>
-      </c>
-      <c r="K365" t="n">
-        <v>5</v>
-      </c>
-      <c r="L365" t="n">
-        <v>5</v>
-      </c>
-      <c r="M365" t="n">
-        <v>137.22</v>
-      </c>
-      <c r="N365" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O365" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P365" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q365" t="n">
-        <v>-2.97</v>
-      </c>
-      <c r="R365" t="inlineStr">
-        <is>
-          <t>CHEMBL1962142</t>
-        </is>
-      </c>
-      <c r="S365" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T365" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>CHEMBL233002</t>
-        </is>
-      </c>
-      <c r="B366" t="n">
-        <v>0</v>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)c2ccc(F)c3ccccc23)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)c2ccc(F)c3ccccc23)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G366" t="n">
-        <v>350.42</v>
-      </c>
-      <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>2</v>
-      </c>
-      <c r="J366" t="n">
-        <v>2</v>
-      </c>
-      <c r="K366" t="n">
-        <v>4</v>
-      </c>
-      <c r="L366" t="n">
-        <v>3</v>
-      </c>
-      <c r="M366" t="n">
-        <v>52.89</v>
-      </c>
-      <c r="N366" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O366" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P366" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q366" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="R366" t="inlineStr">
-        <is>
-          <t>CHEMBL1962142</t>
-        </is>
-      </c>
-      <c r="S366" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MET mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T366" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
